--- a/RaceDistribution.xlsx
+++ b/RaceDistribution.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjennes/Box Sync/ART-Net/Products/NetParams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelianderson/Library/Mobile Documents/com~apple~CloudDocs/GitHub/NetAnalysis-SF-ATL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E22A2F6-BA5C-0D4F-AC35-0EDA6D941F20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADFC0D6-DCE9-314B-9410-3EA576981CC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="21360" windowHeight="14260" xr2:uid="{C17B08D4-B5C1-C24B-8EAB-2CE1B29DB90A}"/>
+    <workbookView xWindow="2320" yWindow="2240" windowWidth="21360" windowHeight="14260" activeTab="2" xr2:uid="{C17B08D4-B5C1-C24B-8EAB-2CE1B29DB90A}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
+    <sheet name="T2" sheetId="2" r:id="rId2"/>
+    <sheet name="Note" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>City</t>
   </si>
@@ -79,6 +86,18 @@
   </si>
   <si>
     <t>Black + Hispanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>White non-Hispanic and Hispanic comes directly from the Census data; All other, non-Black race categories are summed as indicated in the Census; Black is calculated as the difference between the other race categories and 100%; Assumes that all Hispanic individuals are either White Hispanic or Black Hispanic</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/quickfacts/fact/table/US/PST045218</t>
   </si>
 </sst>
 </file>
@@ -130,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -143,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B946ECC-C201-8448-8B94-210D0FEE4665}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -679,4 +701,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6ABD6E-AF6C-464A-B3B3-277692B95005}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>59.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41.8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>61.7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>78.8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>87.4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F243F6EC-D693-2048-922F-18E60F433310}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>